--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2795.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2795.xlsx
@@ -354,7 +354,7 @@
         <v>2.438520762686063</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.36579145758845</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2795.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2795.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168806259707097</v>
+        <v>0.9782673716545105</v>
       </c>
       <c r="B1">
-        <v>2.438520762686063</v>
+        <v>1.760467410087585</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.836337566375732</v>
       </c>
       <c r="D1">
-        <v>2.36579145758845</v>
+        <v>1.270168900489807</v>
       </c>
       <c r="E1">
-        <v>1.232103050281383</v>
+        <v>1.264987230300903</v>
       </c>
     </row>
   </sheetData>
